--- a/RBD/MP_StockingPointCapacities.xlsx
+++ b/RBD/MP_StockingPointCapacities.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="StockingPointCapacities_MP" sheetId="1" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="StockingPointCapacities_MP" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>MaxCapacity</t>
   </si>
@@ -36,6 +37,15 @@
     <t>ABIDJAN (CÔTE D'IVOIRE)</t>
   </si>
   <si>
+    <t>APAPA (NIGERIA) [Break-Bulk]</t>
+  </si>
+  <si>
+    <t>APAPA (NIGERIA) [Bulk]</t>
+  </si>
+  <si>
+    <t>APAPA (NIGERIA) [Container]</t>
+  </si>
+  <si>
     <t>BANGUI (CEN.AFRICAN REP) [Break-Bulk]</t>
   </si>
   <si>
@@ -231,6 +241,9 @@
     <t>CHADAKORI (NIGER)</t>
   </si>
   <si>
+    <t>COKI (SENEGAL)</t>
+  </si>
+  <si>
     <t>DAKOUMA (NIGER)</t>
   </si>
   <si>
@@ -294,6 +307,9 @@
     <t>JEBEL ALI (UTD.ARAB EMIR.)</t>
   </si>
   <si>
+    <t>KANDLA (INDIA)</t>
+  </si>
+  <si>
     <t>KANIFING (GAMBIA)</t>
   </si>
   <si>
@@ -321,6 +337,9 @@
     <t>KORNAKA (NIGER)</t>
   </si>
   <si>
+    <t>LE HAVRE (FRANCE)</t>
+  </si>
+  <si>
     <t>LOGA (NIGER)</t>
   </si>
   <si>
@@ -399,6 +418,9 @@
     <t>ODESSA (UKRAINE)</t>
   </si>
   <si>
+    <t>OUAGADOUGOU (BURKINA FASO)</t>
+  </si>
+  <si>
     <t>OUAHIGOUYA (BURKINA FASO)</t>
   </si>
   <si>
@@ -432,6 +454,9 @@
     <t>ROUEN (FRANCE)</t>
   </si>
   <si>
+    <t>SACLEPEA (LIBERIA)</t>
+  </si>
+  <si>
     <t>SAFO (MALI)</t>
   </si>
   <si>
@@ -477,6 +502,9 @@
     <t>ZINDER (NIGER)</t>
   </si>
   <si>
+    <t>AD DAMMAM (SAUDI ARABIA)</t>
+  </si>
+  <si>
     <t>BENIN [D]</t>
   </si>
   <si>
@@ -568,50 +596,33 @@
   </si>
   <si>
     <t>SIERRA LEONE [D]</t>
-  </si>
-  <si>
-    <t>APAPA (NIGERIA) [Break-Bulk]</t>
-  </si>
-  <si>
-    <t>APAPA (NIGERIA) [Bulk]</t>
-  </si>
-  <si>
-    <t>APAPA (NIGERIA) [Container]</t>
-  </si>
-  <si>
-    <t>KANDLA (INDIA)</t>
-  </si>
-  <si>
-    <t>LE HAVRE (FRANCE)</t>
-  </si>
-  <si>
-    <t>OUAGADOUGOU (BURKINA FASO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd hh:mm:ss.00"/>
-    <numFmt numFmtId="169" formatCode="[h]:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="[h]:mm:ss.00"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color indexed="9"/>
-      <b/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -622,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -630,2119 +641,2418 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
         <v>10000</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
-        <v>15000</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19">
-        <v>21600</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>21600</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23">
-        <v>5000</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33">
-        <v>20000</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1">
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43">
-        <v>18000</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1">
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>18000</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50">
-        <v>48800</v>
-      </c>
-      <c r="B50" s="1">
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1">
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1">
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1">
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>48800</v>
+      </c>
+      <c r="B53" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1">
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1">
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1">
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1">
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1">
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1">
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1">
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1">
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1">
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1">
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1">
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1">
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1">
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1">
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1">
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1">
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1">
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1">
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1">
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1">
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1">
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1">
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1">
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1">
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1">
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1">
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1">
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1">
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1">
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1">
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1">
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1">
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1">
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1">
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1">
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1">
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90">
-        <v>0</v>
-      </c>
-      <c r="B90" s="1">
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1">
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1">
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1">
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1">
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1">
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1">
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1">
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1">
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1">
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1">
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1">
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1">
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1">
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1">
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1">
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1">
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1">
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1">
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109">
-        <v>0</v>
-      </c>
-      <c r="B109" s="1">
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="B110" s="1">
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1">
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="B112" s="1">
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113" s="1">
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1">
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1">
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1">
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117">
-        <v>0</v>
-      </c>
-      <c r="B117" s="1">
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118" s="1">
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119">
-        <v>0</v>
-      </c>
-      <c r="B119" s="1">
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120">
-        <v>0</v>
-      </c>
-      <c r="B120" s="1">
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="B121" s="1">
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1">
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123">
-        <v>0</v>
-      </c>
-      <c r="B123" s="1">
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124">
-        <v>0</v>
-      </c>
-      <c r="B124" s="1">
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125">
-        <v>0</v>
-      </c>
-      <c r="B125" s="1">
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126">
-        <v>0</v>
-      </c>
-      <c r="B126" s="1">
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1">
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128">
-        <v>0</v>
-      </c>
-      <c r="B128" s="1">
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129">
-        <v>0</v>
-      </c>
-      <c r="B129" s="1">
+    <row r="129" spans="1:3">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130">
-        <v>0</v>
-      </c>
-      <c r="B130" s="1">
+    <row r="130" spans="1:3">
+      <c r="A130" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131">
-        <v>0</v>
-      </c>
-      <c r="B131" s="1">
+    <row r="131" spans="1:3">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132">
-        <v>0</v>
-      </c>
-      <c r="B132" s="1">
+    <row r="132" spans="1:3">
+      <c r="A132" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133">
-        <v>0</v>
-      </c>
-      <c r="B133" s="1">
+    <row r="133" spans="1:3">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134">
-        <v>0</v>
-      </c>
-      <c r="B134" s="1">
+    <row r="134" spans="1:3">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135">
-        <v>0</v>
-      </c>
-      <c r="B135" s="1">
+    <row r="135" spans="1:3">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136">
-        <v>0</v>
-      </c>
-      <c r="B136" s="1">
+    <row r="136" spans="1:3">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137">
-        <v>0</v>
-      </c>
-      <c r="B137" s="1">
+    <row r="137" spans="1:3">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138">
-        <v>0</v>
-      </c>
-      <c r="B138" s="1">
+    <row r="138" spans="1:3">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139">
-        <v>0</v>
-      </c>
-      <c r="B139" s="1">
+    <row r="139" spans="1:3">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140">
-        <v>0</v>
-      </c>
-      <c r="B140" s="1">
+    <row r="140" spans="1:3">
+      <c r="A140" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141">
-        <v>0</v>
-      </c>
-      <c r="B141" s="1">
+    <row r="141" spans="1:3">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142">
-        <v>0</v>
-      </c>
-      <c r="B142" s="1">
+    <row r="142" spans="1:3">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143">
-        <v>0</v>
-      </c>
-      <c r="B143" s="1">
+    <row r="143" spans="1:3">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144">
-        <v>0</v>
-      </c>
-      <c r="B144" s="1">
+    <row r="144" spans="1:3">
+      <c r="A144" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145">
-        <v>0</v>
-      </c>
-      <c r="B145" s="1">
+    <row r="145" spans="1:3">
+      <c r="A145" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1">
+    <row r="146" spans="1:3">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147">
-        <v>0</v>
-      </c>
-      <c r="B147" s="1">
+    <row r="147" spans="1:3">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148">
-        <v>0</v>
-      </c>
-      <c r="B148" s="1">
+    <row r="148" spans="1:3">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149">
-        <v>0</v>
-      </c>
-      <c r="B149" s="1">
+    <row r="149" spans="1:3">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150">
-        <v>0</v>
-      </c>
-      <c r="B150" s="1">
+    <row r="150" spans="1:3">
+      <c r="A150" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C150" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151">
-        <v>0</v>
-      </c>
-      <c r="B151" s="1">
+    <row r="151" spans="1:3">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C151" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1">
+    <row r="152" spans="1:3">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C152" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153">
-        <v>0</v>
-      </c>
-      <c r="B153" s="1">
+    <row r="153" spans="1:3">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154">
-        <v>10000</v>
-      </c>
-      <c r="B154" s="1">
+    <row r="154" spans="1:3">
+      <c r="A154" t="n">
+        <v>0</v>
+      </c>
+      <c r="B154" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155">
-        <v>0</v>
-      </c>
-      <c r="B155" s="1">
+    <row r="155" spans="1:3">
+      <c r="A155" t="n">
+        <v>0</v>
+      </c>
+      <c r="B155" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C155" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156">
-        <v>15530</v>
-      </c>
-      <c r="B156" s="1">
+    <row r="156" spans="1:3">
+      <c r="A156" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157">
-        <v>0</v>
-      </c>
-      <c r="B157" s="1">
+    <row r="157" spans="1:3">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C157" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158">
-        <v>39400</v>
-      </c>
-      <c r="B158" s="1">
+    <row r="158" spans="1:3">
+      <c r="A158" t="n">
+        <v>0</v>
+      </c>
+      <c r="B158" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C158" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159">
-        <v>0</v>
-      </c>
-      <c r="B159" s="1">
+    <row r="159" spans="1:3">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C159" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160">
-        <v>10900</v>
-      </c>
-      <c r="B160" s="1">
+    <row r="160" spans="1:3">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C160" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161">
-        <v>0</v>
-      </c>
-      <c r="B161" s="1">
+    <row r="161" spans="1:3">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C161" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162">
-        <v>17000</v>
-      </c>
-      <c r="B162" s="1">
+    <row r="162" spans="1:3">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163">
-        <v>0</v>
-      </c>
-      <c r="B163" s="1">
+    <row r="163" spans="1:3">
+      <c r="A163" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B163" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164">
-        <v>6500</v>
-      </c>
-      <c r="B164" s="1">
+    <row r="164" spans="1:3">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165">
-        <v>0</v>
-      </c>
-      <c r="B165" s="1">
+    <row r="165" spans="1:3">
+      <c r="A165" t="n">
+        <v>15530</v>
+      </c>
+      <c r="B165" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166">
-        <v>4000</v>
-      </c>
-      <c r="B166" s="1">
+    <row r="166" spans="1:3">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167">
-        <v>0</v>
-      </c>
-      <c r="B167" s="1">
+    <row r="167" spans="1:3">
+      <c r="A167" t="n">
+        <v>39400</v>
+      </c>
+      <c r="B167" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168">
-        <v>23000</v>
-      </c>
-      <c r="B168" s="1">
+    <row r="168" spans="1:3">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169">
-        <v>0</v>
-      </c>
-      <c r="B169" s="1">
+    <row r="169" spans="1:3">
+      <c r="A169" t="n">
+        <v>10900</v>
+      </c>
+      <c r="B169" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170">
-        <v>4500</v>
-      </c>
-      <c r="B170" s="1">
+    <row r="170" spans="1:3">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171">
-        <v>0</v>
-      </c>
-      <c r="B171" s="1">
+    <row r="171" spans="1:3">
+      <c r="A171" t="n">
+        <v>17000</v>
+      </c>
+      <c r="B171" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172">
-        <v>17600</v>
-      </c>
-      <c r="B172" s="1">
+    <row r="172" spans="1:3">
+      <c r="A172" t="n">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173">
-        <v>0</v>
-      </c>
-      <c r="B173" s="1">
+    <row r="173" spans="1:3">
+      <c r="A173" t="n">
+        <v>6500</v>
+      </c>
+      <c r="B173" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174">
-        <v>17333</v>
-      </c>
-      <c r="B174" s="1">
+    <row r="174" spans="1:3">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175">
-        <v>0</v>
-      </c>
-      <c r="B175" s="1">
+    <row r="175" spans="1:3">
+      <c r="A175" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B175" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176">
-        <v>19400</v>
-      </c>
-      <c r="B176" s="1">
+    <row r="176" spans="1:3">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C176" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1">
+    <row r="177" spans="1:3">
+      <c r="A177" t="n">
+        <v>23000</v>
+      </c>
+      <c r="B177" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178">
-        <v>49600</v>
-      </c>
-      <c r="B178" s="1">
+    <row r="178" spans="1:3">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1">
+    <row r="179" spans="1:3">
+      <c r="A179" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B179" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180">
-        <v>29000</v>
-      </c>
-      <c r="B180" s="1">
+    <row r="180" spans="1:3">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181">
-        <v>0</v>
-      </c>
-      <c r="B181" s="1">
+    <row r="181" spans="1:3">
+      <c r="A181" t="n">
+        <v>17600</v>
+      </c>
+      <c r="B181" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182">
-        <v>10000</v>
-      </c>
-      <c r="B182" s="1">
+    <row r="182" spans="1:3">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183">
-        <v>0</v>
-      </c>
-      <c r="B183" s="1">
+    <row r="183" spans="1:3">
+      <c r="A183" t="n">
+        <v>17333</v>
+      </c>
+      <c r="B183" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184">
-        <v>0</v>
-      </c>
-      <c r="B184" s="1">
+    <row r="184" spans="1:3">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185">
-        <v>0</v>
-      </c>
-      <c r="B185" s="1">
+    <row r="185" spans="1:3">
+      <c r="A185" t="n">
+        <v>19400</v>
+      </c>
+      <c r="B185" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186">
-        <v>0</v>
-      </c>
-      <c r="B186" s="1">
+    <row r="186" spans="1:3">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187">
-        <v>0</v>
-      </c>
-      <c r="B187" s="1">
+    <row r="187" spans="1:3">
+      <c r="A187" t="n">
+        <v>49600</v>
+      </c>
+      <c r="B187" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188">
-        <v>0</v>
-      </c>
-      <c r="B188" s="1">
+    <row r="188" spans="1:3">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189">
-        <v>0</v>
-      </c>
-      <c r="B189" s="1">
+    <row r="189" spans="1:3">
+      <c r="A189" t="n">
+        <v>29000</v>
+      </c>
+      <c r="B189" s="2" t="n">
         <v>42826</v>
       </c>
       <c r="C189" t="s">
         <v>190</v>
       </c>
     </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>